--- a/data/income_statement/3digits/total/013_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/013_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>013-Plant propagation</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>013-Plant propagation</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>293572.72201</v>
@@ -962,31 +868,36 @@
         <v>271453.75739</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>498473.96098</v>
+        <v>498572.13824</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>818807.51498</v>
+        <v>841510.2424899999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1021142.13208</v>
+        <v>1022172.2075</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1212935.95199</v>
+        <v>1258910.35334</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>1471425.03142</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1762618.07502</v>
+        <v>1762952.47763</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2409482.85039</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2425088.44284</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>3014816.122</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>282152.69816</v>
@@ -1001,31 +912,36 @@
         <v>256057.02039</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>477127.31799</v>
+        <v>477225.49525</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>776657.62063</v>
+        <v>799286.85722</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>980993.1237100001</v>
+        <v>982023.19913</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1167895.66152</v>
+        <v>1212100.70337</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>1403670.08843</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1650929.54386</v>
+        <v>1651262.03965</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2224011.37104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2239306.18789</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2635977.01</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>8166.0654</v>
@@ -1043,13 +959,13 @@
         <v>16214.4483</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>33434.22586999999</v>
+        <v>33443.15087</v>
       </c>
       <c r="I7" s="48" t="n">
         <v>25275.58797</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>29200.26882</v>
+        <v>30042.6503</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>49710.29016</v>
@@ -1058,13 +974,18 @@
         <v>88169.66222</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>150039.44604</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>150309.21325</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>334090.669</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>3253.95845</v>
@@ -1082,28 +1003,33 @@
         <v>5132.19469</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>8715.66848</v>
+        <v>8780.234400000001</v>
       </c>
       <c r="I8" s="48" t="n">
         <v>14873.4204</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>15840.02165</v>
+        <v>16766.99967</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>18044.65283</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>23518.86894</v>
+        <v>23520.77576</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>35432.03331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>35473.0417</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>44748.443</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>12471.28645</v>
@@ -1121,13 +1047,13 @@
         <v>16295.09982</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>25712.33975</v>
+        <v>26033.12082</v>
       </c>
       <c r="I9" s="47" t="n">
         <v>31251.74893</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>26889.95973000001</v>
+        <v>30288.20637</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>30409.7571</v>
@@ -1136,13 +1062,18 @@
         <v>43543.39489</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>73734.21637000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>73868.47637</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>72555.215</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>1069.70701</v>
@@ -1154,19 +1085,19 @@
         <v>697.9274499999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>682.02887</v>
+        <v>682.0288699999999</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>4292.53841</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>11770.74115</v>
+        <v>12056.76818</v>
       </c>
       <c r="I10" s="48" t="n">
         <v>14209.09901</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>7687.57688</v>
+        <v>8227.811040000001</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>9423.88759</v>
@@ -1175,13 +1106,18 @@
         <v>14473.60981</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>22816.40694</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>22950.66694</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>27643.706</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>11100.54107</v>
@@ -1199,13 +1135,13 @@
         <v>11499.11553</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>12878.08941</v>
+        <v>12912.84345</v>
       </c>
       <c r="I11" s="48" t="n">
         <v>15794.02607</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>17330.66643</v>
+        <v>20182.32363</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>19512.64099</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>46766.39796</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>41372.317</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>301.03837</v>
@@ -1244,7 +1185,7 @@
         <v>1248.62385</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1871.71642</v>
+        <v>1878.0717</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>1473.22852</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>4151.41147</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>3539.192</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>281101.43556</v>
@@ -1274,31 +1220,36 @@
         <v>255252.45557</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>482178.86116</v>
+        <v>482277.03842</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>793095.1752300001</v>
+        <v>815477.12167</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>989890.38315</v>
+        <v>990920.45857</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1186045.99226</v>
+        <v>1228622.14697</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>1441015.27432</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1719074.68013</v>
+        <v>1719409.08274</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2335748.634019999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2351219.96647</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2942260.907</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>220090.42503</v>
@@ -1313,37 +1264,42 @@
         <v>210715.33745</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>395880.87739</v>
+        <v>395964.37739</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>648269.9869199999</v>
+        <v>668509.2466599999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>801335.65741</v>
+        <v>801355.65741</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>958983.2670700001</v>
+        <v>994105.49749</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>1155132.69661</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1414049.0945</v>
+        <v>1414382.01398</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1942270.70323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1953275.38059</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2405796.827</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>119580.87923</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>79312.50662</v>
+        <v>79312.50661999999</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>102331.45164</v>
@@ -1352,34 +1308,39 @@
         <v>145080.26719</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>267696.4129699999</v>
+        <v>267779.91297</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>432910.81986</v>
+        <v>451590.82417</v>
       </c>
       <c r="I15" s="48" t="n">
         <v>571618.09687</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>675961.83285</v>
+        <v>698749.64393</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>787246.13874</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>818873.37298</v>
+        <v>818882.39798</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1246144.5644</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1246255.15183</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1412220.744</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>92698.59788000002</v>
+        <v>92698.59788</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>25550.62454</v>
@@ -1394,34 +1355,39 @@
         <v>100503.00591</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>165145.34145</v>
+        <v>166704.59688</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>203089.89298</v>
+        <v>203109.89298</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>240545.38287</v>
+        <v>252879.80221</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>302421.46864</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>439847.2068099999</v>
+        <v>440036.2881</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>502647.0299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>513042.65847</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>653965.938</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>7767.77695</v>
+        <v>7767.776949999999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>7666.44705</v>
+        <v>7666.447049999999</v>
       </c>
       <c r="E17" s="48" t="n">
         <v>9621.39284</v>
@@ -1433,7 +1399,7 @@
         <v>27577.24812</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>48120.52970000001</v>
+        <v>48120.5297</v>
       </c>
       <c r="I17" s="48" t="n">
         <v>24846.54472</v>
@@ -1445,16 +1411,21 @@
         <v>62592.39519</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>152690.2882</v>
+        <v>152825.10139</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>190139.63609</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>190638.09745</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>329794.248</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>43.17097</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>3339.47284</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>9815.897000000001</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>61011.01053</v>
@@ -1508,31 +1484,36 @@
         <v>44537.11812000001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>86297.98377000001</v>
+        <v>86312.66103</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>144825.18831</v>
+        <v>146967.87501</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>188554.72574</v>
+        <v>189564.80116</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>227062.72519</v>
+        <v>234516.64948</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>285882.57771</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>305025.58563</v>
+        <v>305027.06876</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>393477.93079</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>397944.58588</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>536464.08</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>38316.74777</v>
@@ -1547,31 +1528,36 @@
         <v>31319.99116</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>55877.81797</v>
+        <v>55893.86838</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>93507.74921000001</v>
+        <v>94990.64111999999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>104797.02873</v>
+        <v>105709.49623</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>126529.87951</v>
+        <v>131145.41786</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>167166.48455</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>196838.81724</v>
+        <v>197037.11956</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>227412.77916</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>229746.16682</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>286885.735</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0.6673</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>2811.10311</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>2586.05</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>13025.31451</v>
@@ -1619,7 +1610,7 @@
         <v>7271.299980000001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>8031.101309999999</v>
+        <v>8031.10131</v>
       </c>
       <c r="F22" s="48" t="n">
         <v>11692.98263</v>
@@ -1628,28 +1619,33 @@
         <v>18710.89097</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>31235.29908</v>
+        <v>32019.86685</v>
       </c>
       <c r="I22" s="48" t="n">
         <v>35255.29399000001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>38250.65577</v>
+        <v>40469.9123</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>52917.36499</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>66773.52942000001</v>
+        <v>66802.48887</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>80222.23262000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>80766.50352</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>103820.426</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>25290.76596</v>
@@ -1664,31 +1660,36 @@
         <v>18592.45175</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>36786.22676999999</v>
+        <v>36802.27718</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>62099.79405999999</v>
+        <v>62798.1182</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>68919.82626999999</v>
+        <v>69832.29376999997</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>87388.66675999999</v>
+        <v>89784.94858000001</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>112897.49902</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>127618.79772</v>
+        <v>127788.14059</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>144379.44343</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>146168.56019</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>180479.259</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>22694.26276</v>
@@ -1703,31 +1704,36 @@
         <v>13217.12696</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>30420.1658</v>
+        <v>30418.79265</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>51317.4391</v>
+        <v>51977.23389</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>83757.69701</v>
+        <v>83855.30493000001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>100532.84568</v>
+        <v>103371.23162</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>118716.09316</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>108186.76839</v>
+        <v>107989.9492</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>166065.15163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>168198.41906</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>249578.345</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>5229.78865</v>
@@ -1745,28 +1751,33 @@
         <v>39127.01816000001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>27401.96863</v>
+        <v>28088.32822</v>
       </c>
       <c r="I25" s="47" t="n">
         <v>20749.54357</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>18462.35611</v>
+        <v>19490.05999</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>30275.48181</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>94187.03255000002</v>
+        <v>94219.37904</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>79512.79119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>79738.40406999999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>119447.382</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>7142.29512</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>12.796</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>673.6886500000001</v>
@@ -1856,19 +1877,19 @@
         <v>283.80588</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>857.36664</v>
+        <v>857.3666400000001</v>
       </c>
       <c r="G28" s="48" t="n">
         <v>1895.89073</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>3395.51427</v>
+        <v>3706.51927</v>
       </c>
       <c r="I28" s="48" t="n">
         <v>3373.21374</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4243.55355</v>
+        <v>4324.72538</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>10112.25441</v>
@@ -1877,13 +1898,18 @@
         <v>14718.57376</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>20301.31519</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>20488.63802</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>18848.311</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>68.479</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>553.6790900000001</v>
@@ -1934,19 +1965,19 @@
         <v>719.35948</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>855.8967700000001</v>
+        <v>855.8967699999999</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>980.32273</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>872.7153300000001</v>
+        <v>901.7799399999999</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>1840.57606</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2047.72197</v>
+        <v>2402.98275</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>3234.79537</v>
@@ -1955,16 +1986,21 @@
         <v>2253.35007</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>3140.42346</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>3164.37346</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>2563.874</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>6.544860000000001</v>
+        <v>6.54486</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>0</v>
@@ -1979,28 +2015,33 @@
         <v>16.77171</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>697.19363</v>
+        <v>697.1936299999999</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>1227.92915</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>43.13924</v>
+        <v>43.13924000000001</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>282.92493</v>
+        <v>282.9249300000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>184.91739</v>
+        <v>216.34529</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>185.73903</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>347.849</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>2859.8174</v>
@@ -2012,19 +2053,19 @@
         <v>452.51293</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>637.41209</v>
+        <v>637.4120899999999</v>
       </c>
       <c r="G32" s="48" t="n">
         <v>1395.03562</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>5069.15988</v>
+        <v>5125.32484</v>
       </c>
       <c r="I32" s="48" t="n">
         <v>7866.317410000001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>5122.07892</v>
+        <v>5353.502280000001</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>8640.171199999999</v>
@@ -2035,11 +2076,16 @@
       <c r="M32" s="48" t="n">
         <v>25722.96304</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>69438.016</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2066,7 +2112,7 @@
         <v>670.37225</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>639.56259</v>
+        <v>639.5625900000001</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>1126.00094</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>3124.33093</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>10552.604</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>1136.05865</v>
@@ -2135,28 +2191,33 @@
         <v>5079.17654</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>6268.35497</v>
+        <v>6558.47999</v>
       </c>
       <c r="I35" s="48" t="n">
         <v>6106.82875</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>6285.245859999999</v>
+        <v>6645.09377</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>5618.50078</v>
+        <v>5618.500779999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>19277.67105</v>
+        <v>19278.58964</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>19895.72442</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>19910.06447</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>17615.453</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>7168.35955</v>
@@ -2174,28 +2235,33 @@
         <v>5969.2945</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>14416.60949</v>
+        <v>14876.12099</v>
       </c>
       <c r="I36" s="47" t="n">
         <v>17443.29943</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>23505.10272</v>
+        <v>24911.70731</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>23606.41676</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>63601.69101</v>
+        <v>63611.87687</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>61905.61299</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>62761.75423999999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>94907.883</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>21.56309</v>
@@ -2210,7 +2276,7 @@
         <v>28.01456</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>48.98037</v>
+        <v>48.98036999999999</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>91.57351</v>
@@ -2219,7 +2285,7 @@
         <v>146.55955</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>558.7321299999999</v>
+        <v>558.73213</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>203.81151</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>436.1830400000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>320.608</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>2094.19117</v>
@@ -2252,13 +2323,13 @@
         <v>3542.868980000001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>8883.187719999998</v>
+        <v>9180.905990000001</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>8418.18398</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>14309.91689</v>
+        <v>15447.99163</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>15376.34523</v>
@@ -2267,13 +2338,18 @@
         <v>7175.56483</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>9305.627189999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>10161.76844</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>11426.622</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,20 +2384,25 @@
       <c r="M39" s="48" t="n">
         <v>104.86835</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>192.96</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>4814.447349999999</v>
+        <v>4814.44735</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>240.02889</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>710.0011499999999</v>
+        <v>710.0011500000001</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>621.23607</v>
@@ -2330,28 +2411,33 @@
         <v>1229.3211</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>4039.26379</v>
+        <v>4124.356870000001</v>
       </c>
       <c r="I40" s="48" t="n">
         <v>6147.965740000001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>6236.283359999999</v>
+        <v>6504.81321</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>6357.934040000001</v>
+        <v>6357.93404</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>51860.0982</v>
+        <v>51860.09819999999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>38659.87543</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>38659.87543000001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>67673.436</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2378,7 +2464,7 @@
         <v>791.0082199999999</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>713.3270699999999</v>
+        <v>713.32707</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>1835.35602</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>4204.43416</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>12041.677</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>238.15794</v>
@@ -2447,7 +2543,7 @@
         <v>999.4840300000001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>854.57699</v>
+        <v>931.2771400000001</v>
       </c>
       <c r="I43" s="48" t="n">
         <v>1933.91581</v>
@@ -2459,19 +2555,24 @@
         <v>888.45598</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>2452.90954</v>
+        <v>2463.0954</v>
       </c>
       <c r="M43" s="48" t="n">
         <v>9194.624820000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>3252.58</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>7964.654439999999</v>
+        <v>7964.65444</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>3904.53932</v>
@@ -2486,28 +2587,33 @@
         <v>16062.56692</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>27881.62098</v>
+        <v>29444.80288</v>
       </c>
       <c r="I44" s="47" t="n">
         <v>37064.72845</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>43510.65623000001</v>
+        <v>46784.14403</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>53482.99128</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>84239.74962999999</v>
+        <v>84241.01297</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>102479.73485</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>102733.32474</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>99835.08</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>7795.64003</v>
@@ -2525,28 +2631,33 @@
         <v>15489.17081</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>27394.68624</v>
+        <v>28957.86814</v>
       </c>
       <c r="I45" s="48" t="n">
         <v>36678.40580000001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>42805.96476</v>
+        <v>46079.45256000001</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>51824.07909000001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>81999.57618</v>
+        <v>82000.83951999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>101124.19367</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>101377.78356</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>95802.8</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>169.01441</v>
@@ -2581,50 +2692,60 @@
       <c r="M46" s="48" t="n">
         <v>1355.54118</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>4032.28</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>12791.03742</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>5860.66686</v>
+        <v>5860.666859999999</v>
       </c>
       <c r="E47" s="47" t="n">
         <v>1757.16533</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>42311.78112</v>
+        <v>42311.78112000001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>47515.32254</v>
+        <v>47513.94939</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>36421.17726</v>
+        <v>35744.63824</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>49999.2127</v>
+        <v>50096.82062</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>51979.44284</v>
+        <v>51165.44027000001</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>71902.16693000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>54532.36030000001</v>
+        <v>54356.43840000001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>81192.59498000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>82441.74414999998</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>174282.764</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1693.7945</v>
@@ -2633,7 +2754,7 @@
         <v>575.9033000000001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>931.2721099999999</v>
+        <v>931.27211</v>
       </c>
       <c r="F48" s="47" t="n">
         <v>789.17453</v>
@@ -2648,22 +2769,27 @@
         <v>6000.11828</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>11810.72817</v>
+        <v>11885.54506</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>10631.02485</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>16067.58814</v>
+        <v>16068.12615</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>21137.04567</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>21211.71027</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>30083.506</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>3.31035</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>287.9051</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>109.096</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>1690.48415</v>
@@ -2711,7 +2842,7 @@
         <v>575.9033000000001</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>929.9283399999998</v>
+        <v>929.92834</v>
       </c>
       <c r="F50" s="48" t="n">
         <v>789.17453</v>
@@ -2726,61 +2857,71 @@
         <v>5998.11301</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>11793.66682</v>
+        <v>11868.48371</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>10606.7302</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>16050.68062</v>
+        <v>16051.21863</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>20849.14057</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>20923.80517</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>29974.41</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1595.65008</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>997.4431900000001</v>
+        <v>997.44319</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>5016.66586</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>4711.399489999999</v>
+        <v>4711.39949</v>
       </c>
       <c r="G51" s="47" t="n">
         <v>2608.85931</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>18923.32686</v>
+        <v>18923.35211</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>5094.121539999999</v>
+        <v>5094.12154</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>11559.04976</v>
+        <v>11674.68659</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>6631.642800000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>13046.16694</v>
+        <v>13069.6523</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>18588.4843</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>18622.5264</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>16021.244</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>10.27522</v>
@@ -2798,7 +2939,7 @@
         <v>94.87491</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>967.56158</v>
+        <v>967.5615799999999</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>1186.33332</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>149.56212</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>131.462</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>117.1564</v>
@@ -2837,13 +2983,13 @@
         <v>189.36262</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>90.06398000000002</v>
+        <v>90.08923</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>339.1642200000001</v>
+        <v>339.16422</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>547.5202099999999</v>
+        <v>562.9069300000001</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>103.63985</v>
@@ -2854,23 +3000,28 @@
       <c r="M53" s="48" t="n">
         <v>779.7931799999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>374.951</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>1468.21846</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>987.9464600000001</v>
+        <v>987.94646</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>5012.339220000001</v>
+        <v>5012.33922</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>4650.026559999999</v>
+        <v>4650.02656</v>
       </c>
       <c r="G54" s="48" t="n">
         <v>2324.62178</v>
@@ -2882,61 +3033,71 @@
         <v>3568.624</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>10893.68142</v>
+        <v>10993.93153</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>6356.81274</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>12549.23726</v>
+        <v>12572.72262</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>17659.129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>17693.1711</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>15514.831</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>12889.18184</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>5439.12697</v>
+        <v>5439.126969999999</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>-2328.22842</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>38389.55616000001</v>
+        <v>38389.55615999999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>46827.7752</v>
+        <v>46826.40205</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>25160.84182</v>
+        <v>24484.27755000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>50905.20944</v>
+        <v>51002.81736</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>52231.12125</v>
+        <v>51376.29873999999</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>75901.54898000001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>57553.7815</v>
+        <v>57354.91225</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>83741.15634999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>85030.92801999999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>188345.026</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>3558.55413</v>
@@ -2966,16 +3127,21 @@
         <v>16560.33579</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>16186.21865</v>
+        <v>16187.7115</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>29488.79909</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>29606.56939</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>41905.289</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>9330.627709999999</v>
@@ -2990,28 +3156,31 @@
         <v>36980.75542</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>41308.43757</v>
+        <v>41307.06442</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>16592.62185</v>
+        <v>15916.05758</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>40785.97906000001</v>
+        <v>40883.58698</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>37951.02095000001</v>
+        <v>37096.19844</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>59341.21318999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>41367.56285</v>
+        <v>41167.20075</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>54252.35726</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>55424.35863000001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>146439.737</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>224</v>
@@ -3044,28 +3216,31 @@
         <v>179</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H59" s="35" t="n">
+        <v>377</v>
+      </c>
+      <c r="I59" s="35" t="n">
         <v>376</v>
       </c>
-      <c r="I59" s="35" t="n">
-        <v>375</v>
-      </c>
       <c r="J59" s="35" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>421</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>484</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>